--- a/data/trans_bre/CONS_DOL-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DOL-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>17,78</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,25</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>3,19</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,43</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>53,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>98,3%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25,18%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>13,32%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>72,78%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>58,99%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 9,17</t>
+          <t>0,88; 7,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 8,63</t>
+          <t>11,36; 23,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,94; 18,42</t>
+          <t>-0,32; 10,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,83</t>
+          <t>-2,87; 8,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 60,29</t>
+          <t>7,66; 111,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 41,74</t>
+          <t>53,32; 160,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,24; 115,07</t>
+          <t>-2,57; 72,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,51; 116,14</t>
+          <t>-10,34; 41,08</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>11,61</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>10,36</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,51</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>57,79%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45,93%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>42,62%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>56,86%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>40,9%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 12,24</t>
+          <t>-0,58; 6,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 17,56</t>
+          <t>4,59; 17,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 16,75</t>
+          <t>1,34; 12,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,48</t>
+          <t>2,65; 17,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 87,97</t>
+          <t>-7,65; 112,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 89,24</t>
+          <t>18,81; 104,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,98; 99,55</t>
+          <t>6,79; 99,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 109,41</t>
+          <t>9,07; 81,06</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,86</t>
+          <t>13,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>33,76</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14,97</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>12,69</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>22,5</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,48</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,51%</t>
+          <t>115,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>229,06%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65,29%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>33,76%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>90,6%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>98,72%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 24,76</t>
+          <t>8,5; 19,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 25,81</t>
+          <t>14,33; 50,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,66; 32,47</t>
+          <t>6,4; 24,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 16,42</t>
+          <t>-0,15; 26,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,58; 113,59</t>
+          <t>62,96; 180,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 80,58</t>
+          <t>44,03; 908,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,52; 169,86</t>
+          <t>23,54; 119,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,82; 152,58</t>
+          <t>-1,53; 79,34</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,2</t>
+          <t>30,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,95</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>19,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,32%</t>
+          <t>106,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>58,83%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>66,53%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 12,4</t>
+          <t>0,08; 7,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,75; 27,91</t>
+          <t>8,79; 56,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 33,32</t>
+          <t>-1,46; 9,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 7,11</t>
+          <t>10,74; 27,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 56,29</t>
+          <t>0,18; 52,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,42; 112,45</t>
+          <t>29,62; 218,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,84; 129,2</t>
+          <t>-5,05; 46,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 51,17</t>
+          <t>32,02; 113,06</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,89</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>18,69</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>15,87</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>21,16</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>12,54</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>63,7%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>74,96%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>71,22%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>44,52%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>78,23%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>93,11%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 21,54</t>
+          <t>8,27; 18,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 28,94</t>
+          <t>-2,63; 30,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,1; 26,12</t>
+          <t>6,28; 21,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,71; 16,65</t>
+          <t>0,39; 27,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,47; 121,15</t>
+          <t>46,3; 161,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 105,3</t>
+          <t>-3,37; 143,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,9; 108,14</t>
+          <t>25,51; 130,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,15; 148,81</t>
+          <t>-2,66; 98,56</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,38</t>
+          <t>14,84</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,35</t>
+          <t>21,03</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,52</t>
+          <t>14,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,12</t>
+          <t>20,53</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>102,23%</t>
+          <t>350,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>107,41%</t>
+          <t>136,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>209,28%</t>
+          <t>159,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>334,58%</t>
+          <t>96,86%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 39,32</t>
+          <t>10,61; 18,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,89; 34,63</t>
+          <t>7,75; 29,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,67; 30,72</t>
+          <t>-6,81; 42,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,0; 16,09</t>
+          <t>6,01; 33,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,5; —</t>
+          <t>145,09; 732,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,75; 277,97</t>
+          <t>29,02; 419,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>87,0; 400,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>160,08; 637,9</t>
+          <t>16,41; 249,94</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>23,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,37</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>65,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>41,23%</t>
+          <t>112,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>73,16%</t>
+          <t>34,31%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>64,6%</t>
+          <t>40,85%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,66</t>
+          <t>5,78; 9,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,7; 15,23</t>
+          <t>15,08; 43,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,56; 23,94</t>
+          <t>4,06; 9,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,7; 8,51</t>
+          <t>7,55; 14,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,74; 53,77</t>
+          <t>46,31; 85,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,0; 58,46</t>
+          <t>67,01; 251,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>58,25; 100,84</t>
+          <t>18,91; 51,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49,8; 82,8</t>
+          <t>25,03; 57,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_DOL-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DOL-Clase-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>53,67%</t>
+          <t>62,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,14</t>
+          <t>1,52; 7,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 23,49</t>
+          <t>11,18; 23,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 8,72</t>
+          <t>-2,76; 9,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,66; 111,65</t>
+          <t>18,11; 134,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,32; 160,21</t>
+          <t>49,88; 155,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 41,08</t>
+          <t>-10,54; 43,57</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>37,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,92</t>
+          <t>-0,84; 6,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 17,86</t>
+          <t>5,04; 18,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 17,01</t>
+          <t>3,23; 17,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 112,25</t>
+          <t>-7,87; 108,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,81; 104,96</t>
+          <t>20,81; 108,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,07; 81,06</t>
+          <t>11,12; 86,41</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,79</t>
+          <t>13,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>115,69%</t>
+          <t>112,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,5; 19,59</t>
+          <t>8,09; 19,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,33; 50,05</t>
+          <t>16,5; 50,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 26,01</t>
+          <t>-1,08; 26,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,96; 180,71</t>
+          <t>59,52; 176,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,03; 908,03</t>
+          <t>51,39; 1470,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 79,34</t>
+          <t>-2,59; 81,29</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 7,59</t>
+          <t>0,65; 7,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 56,78</t>
+          <t>8,97; 57,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 27,7</t>
+          <t>11,33; 28,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 52,67</t>
+          <t>3,63; 56,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,62; 218,4</t>
+          <t>30,24; 233,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,02; 113,06</t>
+          <t>33,01; 113,43</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,43</t>
+          <t>13,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,27; 18,31</t>
+          <t>8,42; 18,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 30,17</t>
+          <t>-2,85; 29,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 27,82</t>
+          <t>-0,21; 28,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>46,3; 161,07</t>
+          <t>45,49; 151,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 143,02</t>
+          <t>-2,93; 133,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 98,56</t>
+          <t>0,19; 109,12</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,84</t>
+          <t>13,37</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>350,9%</t>
+          <t>256,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,61; 18,54</t>
+          <t>8,89; 17,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,75; 29,95</t>
+          <t>7,39; 30,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,01; 33,71</t>
+          <t>5,95; 33,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>145,09; 732,86</t>
+          <t>93,0; 567,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,02; 419,68</t>
+          <t>20,65; 381,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,41; 249,94</t>
+          <t>18,8; 246,75</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>65,5%</t>
+          <t>65,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 9,07</t>
+          <t>5,51; 8,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,08; 43,26</t>
+          <t>15,52; 39,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,55; 14,94</t>
+          <t>7,42; 15,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>46,31; 85,94</t>
+          <t>47,38; 87,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,01; 251,55</t>
+          <t>65,91; 217,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,03; 57,71</t>
+          <t>24,54; 58,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_DOL-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DOL-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>15,91</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,25</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>4,28</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>17,78</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,25</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>84,24%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13,32%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25,18%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>62,68%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>98,3%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>25,18%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>13,32%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>9,55; 21,81</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 9,03</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 10,17</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>1,52; 7,3</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>11,18; 23,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 10,17</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 9,03</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>41,69; 135,57</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-10,54; 43,57</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 72,4</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>18,11; 134,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>49,88; 155,33</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 72,4</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-10,54; 43,57</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>12,17</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10,36</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,97</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,61</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,36</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>63,67%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>42,62%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45,93%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>37,6%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>57,79%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>45,93%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>42,62%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>5,83; 18,2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 17,58</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 12,8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-0,84; 6,28</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 18,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,34; 12,8</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 17,58</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>24,8; 115,86</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11,12; 86,41</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 99,0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>-7,87; 108,91</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>20,81; 108,42</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>6,79; 99,0</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>11,12; 86,41</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>17,29</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12,69</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14,97</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>13,85</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>33,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>14,97</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,69</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>55,68%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33,76%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65,29%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>112,96%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>229,06%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>65,29%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>33,76%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6,48; 27,57</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 26,14</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6,4; 24,85</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>8,09; 19,16</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>16,5; 50,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6,4; 24,85</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 26,14</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>17,62; 105,59</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 81,29</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23,54; 119,78</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>59,52; 176,22</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>51,39; 1470,36</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>23,54; 119,78</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 81,29</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>11,8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19,26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>4,04</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>30,4</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>19,26</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>42,87%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>66,53%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>25,44%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>106,44%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>16,63%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>66,53%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>6,37; 17,01</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11,33; 28,05</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 9,92</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0,65; 7,78</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8,97; 57,62</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 9,92</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>11,33; 28,05</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>20,93; 69,62</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>33,01; 113,43</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 46,72</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>3,63; 56,46</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>30,24; 233,45</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 46,72</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>33,01; 113,43</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>26,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,87</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>13,57</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>18,69</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>14,22</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>15,87</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>108,07%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>44,52%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>71,22%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>92,37%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>74,96%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>71,22%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>44,52%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>17,99; 32,5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 28,81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,28; 21,74</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>8,42; 18,61</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,85; 29,41</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 21,74</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,21; 28,81</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>59,06; 165,42</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 109,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25,51; 130,17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>45,49; 151,57</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-2,93; 133,47</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>25,51; 130,17</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 109,12</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>22,92</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20,53</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14,39</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>13,37</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>21,03</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>14,39</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>20,53</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>177,68%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>96,86%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>159,8%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>256,98%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>136,5%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>159,8%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>96,86%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>11,71; 30,52</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 33,96</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 42,29</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>8,89; 17,42</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,39; 30,09</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 42,29</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,95; 33,96</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>49,02; 437,93</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18,8; 246,75</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>93,0; 567,89</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>20,65; 381,52</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>18,8; 246,75</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>15,96</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11,4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6,92</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>7,19</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>23,4</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,92</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>11,4</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>68,71%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>40,85%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>34,31%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>65,29%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>112,42%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>34,31%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>40,85%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>13,21; 19,05</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7,42; 15,19</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 9,67</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>5,51; 8,86</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>15,52; 39,63</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>4,06; 9,67</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,42; 15,19</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>52,14; 89,19</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24,54; 58,37</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18,91; 51,17</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>47,38; 87,18</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>65,91; 217,59</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>18,91; 51,17</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>24,54; 58,37</t>
         </is>
       </c>
     </row>
